--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/git/nonobank-ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -96,50 +92,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>check_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mycard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mycard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,14 +137,22 @@
   </si>
   <si>
     <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_unregister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_unregister</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,17 +504,17 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,22 +531,22 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -565,15 +561,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -582,22 +578,22 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
@@ -627,9 +623,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绑定银行卡成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,11 +132,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_unregister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_unregister</t>
+    <t>${BankCardUtils.getBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$IdCardGenerator.generateIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,31 +522,31 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -572,40 +572,40 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mycard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,15 +132,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$IdCardGenerator.generateIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -514,7 +514,7 @@
     <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,13 +540,13 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -561,15 +561,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -584,22 +584,22 @@
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>7</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -144,7 +144,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${ IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -132,19 +132,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${RandomUtils.generateUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identity_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardBank(user_name)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -540,7 +540,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>22</v>
@@ -566,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -587,7 +587,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -140,12 +140,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardBank(user_name)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
   </si>
 </sst>
 </file>
@@ -504,7 +503,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12870" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,22 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>myname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,11 +124,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${RandomUtils.generateUserName()}</t>
+  </si>
+  <si>
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${RandomUtils.generateUserName()}</t>
   </si>
 </sst>
 </file>
@@ -510,7 +494,7 @@
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -533,30 +517,24 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -565,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -576,34 +554,28 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="2985"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${RandomUtils.generateUserName()}</t>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +488,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -543,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="2985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,22 @@
   </si>
   <si>
     <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>####</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,20 +501,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,31 +531,37 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -556,27 +578,33 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -136,15 +136,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>validation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>####</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -534,7 +534,7 @@
         <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -578,9 +578,9 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>myname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +129,22 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -514,7 +514,7 @@
     <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,22 +531,22 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -555,56 +555,62 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identity_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -569,43 +569,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>7</v>
